--- a/测试数据/一界面/解释成果表-1单-下段.xlsx
+++ b/测试数据/一界面/解释成果表-1单-下段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="宁209H34-1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>第一界面水泥胶结质量单层评价表</t>
   </si>
@@ -53,6 +53,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1961.19-196</t>
     </r>
     <r>
@@ -78,6 +83,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>196</t>
     </r>
     <r>
@@ -440,25 +450,21 @@
   <si>
     <t>4704.94-5053.00</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -469,7 +475,6 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -479,7 +484,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -493,53 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -554,45 +612,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -606,24 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,25 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +673,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,13 +703,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,37 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,25 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,8 +861,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,32 +900,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +923,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -950,143 +940,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -4152,29 +4157,6 @@
       </c>
       <c r="G120" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="121" ht="18.2" customHeight="1" spans="1:7">
-      <c r="A121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
